--- a/data/resumes_scrubbed/legislative_activity/99_2.xlsx
+++ b/data/resumes_scrubbed/legislative_activity/99_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/legislative_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14D48BF8-B2EF-46A5-A8DA-7D354B91ADCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{14D48BF8-B2EF-46A5-A8DA-7D354B91ADCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC11574C-D0B6-4AE3-9FC3-2B25A89EE7AA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
-  <si>
-    <t>n2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Senate</t>
   </si>
@@ -133,12 +130,6 @@
     <t xml:space="preserve">     Measures introduced, Simple resolutions  </t>
   </si>
   <si>
-    <t xml:space="preserve">  1,278hrs, 15'</t>
-  </si>
-  <si>
-    <t>829 hrs, 11'</t>
-  </si>
-  <si>
     <t>Measures passed, total</t>
   </si>
   <si>
@@ -158,6 +149,12 @@
   </si>
   <si>
     <t xml:space="preserve">     Measures passed, House concurrent resolutions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1,278 hrs., 15'</t>
+  </si>
+  <si>
+    <t>829 hrs., 11'</t>
   </si>
 </sst>
 </file>
@@ -1044,18 +1041,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>99</v>
@@ -1069,7 +1066,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1083,7 +1080,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>31433</v>
@@ -1097,7 +1094,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>31703</v>
@@ -1111,7 +1108,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>143</v>
@@ -1122,18 +1119,18 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>17426</v>
@@ -1147,7 +1144,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
         <v>3830</v>
@@ -1155,7 +1152,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1">
         <v>187</v>
@@ -1169,7 +1166,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>7</v>
@@ -1183,7 +1180,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1194,13 +1191,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1">
         <v>747</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
+      <c r="C13" s="1">
+        <v>772</v>
       </c>
       <c r="D13" s="2">
         <v>1519</v>
@@ -1208,7 +1205,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>164</v>
@@ -1219,7 +1216,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>209</v>
@@ -1230,7 +1227,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>120</v>
@@ -1241,7 +1238,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>74</v>
@@ -1252,7 +1249,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
         <v>28</v>
@@ -1263,7 +1260,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1">
         <v>34</v>
@@ -1274,7 +1271,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1">
         <v>118</v>
@@ -1285,7 +1282,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
         <v>546</v>
@@ -1299,7 +1296,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>243</v>
@@ -1310,7 +1307,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>93</v>
@@ -1321,7 +1318,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
         <v>111</v>
@@ -1332,7 +1329,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
         <v>23</v>
@@ -1343,7 +1340,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
         <v>6</v>
@@ -1351,7 +1348,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1">
         <v>7</v>
@@ -1362,7 +1359,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1">
         <v>63</v>
@@ -1373,7 +1370,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1">
         <v>15</v>
@@ -1384,7 +1381,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1">
         <v>37</v>
@@ -1392,7 +1389,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
         <v>180</v>
@@ -1403,7 +1400,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2">
         <v>1429</v>
@@ -1417,7 +1414,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>954</v>
@@ -1428,7 +1425,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>177</v>
@@ -1439,7 +1436,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>73</v>
@@ -1450,7 +1447,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>225</v>
@@ -1461,7 +1458,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="1">
         <v>16</v>
@@ -1472,7 +1469,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1">
         <v>359</v>
@@ -1483,7 +1480,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1">
         <v>227</v>
@@ -1491,7 +1488,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -1505,7 +1502,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
